--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>89</v>

--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1404,44 +1404,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.7109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="222.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="222.1015625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>

--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,7 +289,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -905,6 +905,10 @@
   </si>
   <si>
     <t>Condition.stage.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4396,13 +4400,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4453,7 +4457,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4477,7 +4481,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4488,7 +4492,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4517,7 +4521,7 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>138</v>
@@ -4570,7 +4574,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4594,7 +4598,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4605,11 +4609,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4631,10 +4635,10 @@
         <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>138</v>
@@ -4689,7 +4693,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -4724,7 +4728,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4750,10 +4754,10 @@
         <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4783,10 +4787,10 @@
         <v>205</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -4804,7 +4808,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -4813,7 +4817,7 @@
         <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
@@ -4822,7 +4826,7 @@
         <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>166</v>
@@ -4839,7 +4843,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4862,13 +4866,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4919,7 +4923,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -4928,7 +4932,7 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>101</v>
@@ -4943,7 +4947,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -4954,7 +4958,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4980,10 +4984,10 @@
         <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5013,10 +5017,10 @@
         <v>205</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -5034,7 +5038,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5058,7 +5062,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5069,7 +5073,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5095,13 +5099,13 @@
         <v>278</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5151,7 +5155,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5163,7 +5167,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5175,7 +5179,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5186,7 +5190,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5209,13 +5213,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5266,7 +5270,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5290,7 +5294,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5301,7 +5305,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5330,7 +5334,7 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>138</v>
@@ -5383,7 +5387,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5407,7 +5411,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5418,11 +5422,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5444,10 +5448,10 @@
         <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>138</v>
@@ -5502,7 +5506,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5537,7 +5541,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5563,10 +5567,10 @@
         <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5596,10 +5600,10 @@
         <v>205</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5617,7 +5621,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5626,13 +5630,13 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>186</v>
@@ -5641,10 +5645,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5652,7 +5656,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5675,13 +5679,13 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5732,7 +5736,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -5741,7 +5745,7 @@
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
@@ -5756,10 +5760,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -5767,7 +5771,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5790,13 +5794,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5847,7 +5851,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -5862,16 +5866,16 @@
         <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>

--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/main/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
